--- a/biology/Microbiologie/Jakobea/Jakobea.xlsx
+++ b/biology/Microbiologie/Jakobea/Jakobea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jakobea constituent un embranchement des Excavata et sa seule classe.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Embranchement et Classe Jakobea
 Andaluciida
@@ -552,7 +566,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Thomas Cavalier-Smith, The excavate protozoan phyla Metamonada Grassé emend. (Anaeromonadea, Parabasalia, Carpediemonas, Eopharyngia) and Loukozoa emend. (Jakobea, Malawimonas): their evolutionary affinities and new higher taxa, Internat. Journal of Syst. and Evol. Microbiol. 53, 1741-1758 (2003).
 (en) Lara, E., Chatzinotas, A., Simpson, A.G.B. (2006) Andalucia (gen. nov,): a new taxon for the deepest branch within jakobids (Jakobida; Excavata), based on morphological and molecular study of a new flagellate from soil. J. Eukaryot. Microbiol. 53: 112-120.</t>
